--- a/Core xy BOM.xlsx
+++ b/Core xy BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="6900" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly BOM" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="186">
-  <si>
-    <t>Expected Print Area</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="191">
+  <si>
+    <t>Expected Print Range</t>
+  </si>
+  <si>
+    <t>IMPORTANT</t>
   </si>
   <si>
     <t>x Direction (mm)</t>
   </si>
   <si>
+    <t>1. To customize the size of the hot bed, please fill in the expected printing range.</t>
+  </si>
+  <si>
     <t>y Direction (mm)</t>
   </si>
   <si>
+    <t>2. The main board only supports 180W hot bed (Include MOS tube if exceed range).</t>
+  </si>
+  <si>
     <t>z Direction (mm)</t>
   </si>
   <si>
+    <t>3. Considering the physical characteristics of thread rod, print range should not exceed 300*300.</t>
+  </si>
+  <si>
+    <t>Assembly BOM</t>
+  </si>
+  <si>
     <t>AESSEMBLY NAME</t>
   </si>
   <si>
@@ -459,6 +474,9 @@
     <t xml:space="preserve">Total weight </t>
   </si>
   <si>
+    <t>Purchase BOM</t>
+  </si>
+  <si>
     <t>Cost/Unit</t>
   </si>
   <si>
@@ -531,16 +549,19 @@
     <t>V6 Heating Block</t>
   </si>
   <si>
-    <t>20*20*10</t>
-  </si>
-  <si>
-    <t>Al</t>
+    <t>20 x 20 x10</t>
   </si>
   <si>
     <t>Extruder Nozzles</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>Brass</t>
     </r>
     <r>
@@ -585,6 +606,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>12V/40W NTC</t>
     </r>
     <r>
@@ -605,18 +632,25 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -635,6 +669,13 @@
       <sz val="18"/>
       <color rgb="FF0F1111"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1015,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1092,6 +1133,26 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1107,17 +1168,6 @@
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1191,6 +1241,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1208,6 +1269,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1233,42 +1318,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1284,7 +1334,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -1314,6 +1364,19 @@
       </top>
       <bottom style="thin">
         <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,10 +1486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,137 +1498,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,170 +1638,140 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2088,10 +2121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
@@ -2104,60 +2137,73 @@
     <col min="6" max="6" width="10.7272727272727" style="8" customWidth="1"/>
     <col min="7" max="7" width="18.6818181818182" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.9090909090909" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.5909090909091" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.9545454545455" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="8"/>
-      <c r="B2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30">
         <v>300</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="E2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="8"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30">
         <v>200</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="E3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="8"/>
-      <c r="B4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="34">
         <v>280</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="E4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="8"/>
@@ -2170,98 +2216,89 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:9">
+    <row r="6" customFormat="1" ht="34" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:9">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:9">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4">
         <f>408-300+C2</f>
         <v>408</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="41">
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="36">
         <v>2</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="41">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44">
-        <v>48.2</v>
-      </c>
-      <c r="H8" s="43">
-        <f>G8*F8</f>
-        <v>48.2</v>
-      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:9">
       <c r="A9" s="14"/>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6">
+        <v>23</v>
+      </c>
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="39">
         <v>48.2</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="38">
         <f>G9*F9</f>
         <v>48.2</v>
       </c>
@@ -2270,1863 +2307,1854 @@
     <row r="10" s="8" customFormat="1" spans="1:9">
       <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
+        <v>48.2</v>
+      </c>
+      <c r="H10" s="38">
+        <f>G10*F10</f>
+        <v>48.2</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:9">
       <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="43"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:9">
       <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="1:9">
       <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="1:9">
       <c r="A14" s="14"/>
-      <c r="B14" s="18" t="s">
-        <v>26</v>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="18">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" s="8" customFormat="1" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" s="8" customFormat="1" spans="1:9">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:9">
+      <c r="A17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
         <f>460-300+C2</f>
         <v>460</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6">
-        <f>340-200+C3</f>
-        <v>340</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>31</v>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
-        <f>390-280+C4</f>
-        <v>390</v>
+        <f>340-200+C3</f>
+        <v>340</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:9">
       <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6">
-        <f>334-200+C3</f>
-        <v>334</v>
+        <f>390-280+C4</f>
+        <v>390</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="39"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:9">
       <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="6">
+        <f>334-200+C3</f>
+        <v>334</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="44">
-        <v>19.67</v>
-      </c>
-      <c r="H20" s="6">
-        <f>G20*F20</f>
-        <v>19.67</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:9">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="44">
-        <v>10.95</v>
+      <c r="G21" s="39">
+        <v>19.67</v>
       </c>
       <c r="H21" s="6">
         <f>G21*F21</f>
-        <v>10.95</v>
+        <v>19.67</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:9">
       <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="44">
-        <v>20.22</v>
+      <c r="G22" s="39">
+        <v>10.95</v>
       </c>
       <c r="H22" s="6">
         <f>G22*F22</f>
-        <v>20.22</v>
+        <v>10.95</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="44">
-        <v>10.95</v>
+      <c r="G23" s="39">
+        <v>20.22</v>
       </c>
       <c r="H23" s="6">
         <f>G23*F23</f>
-        <v>10.95</v>
+        <v>20.22</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="39">
+        <v>10.95</v>
+      </c>
+      <c r="H24" s="6">
+        <f>G24*F24</f>
+        <v>10.95</v>
+      </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F25" s="6">
-        <v>10</v>
-      </c>
-      <c r="G25" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="39"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" s="8" customFormat="1" spans="1:9">
       <c r="A26" s="14"/>
       <c r="B26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18">
-        <v>4</v>
-      </c>
-      <c r="G26" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="39"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" s="8" customFormat="1" spans="1:9">
       <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18">
-        <v>2</v>
-      </c>
-      <c r="G27" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16">
+        <v>4</v>
+      </c>
+      <c r="G27" s="39"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" s="8" customFormat="1" spans="1:9">
       <c r="A28" s="14"/>
       <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
-        <v>12</v>
-      </c>
-      <c r="G28" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
+      <c r="G28" s="39"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18">
-        <v>8</v>
-      </c>
-      <c r="G29" s="44"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>12</v>
+      </c>
+      <c r="G29" s="39"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" s="8" customFormat="1" spans="1:9">
       <c r="A30" s="14"/>
       <c r="B30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <v>48</v>
-      </c>
-      <c r="G30" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16">
+        <v>8</v>
+      </c>
+      <c r="G30" s="39"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" s="8" customFormat="1" spans="1:9">
       <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
-        <v>4</v>
-      </c>
-      <c r="G31" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="G31" s="39"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:9">
       <c r="A32" s="14"/>
       <c r="B32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <v>4</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:9">
       <c r="A33" s="14"/>
       <c r="B33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6">
-        <v>20</v>
-      </c>
-      <c r="G33" s="44"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="39"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" s="8" customFormat="1" spans="1:9">
       <c r="A34" s="14"/>
       <c r="B34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="6">
         <v>20</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
-        <v>40</v>
-      </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:9">
       <c r="A35" s="14"/>
       <c r="B35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18">
-        <v>2</v>
-      </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <v>40</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:9">
       <c r="A36" s="14"/>
       <c r="B36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="18">
+        <v>57</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16">
         <v>2</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:9">
       <c r="A37" s="14"/>
       <c r="B37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="C37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="16">
+        <v>2</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:9">
       <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18">
-        <v>8</v>
-      </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:9">
       <c r="A39" s="14"/>
       <c r="B39" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18">
-        <v>2</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16">
+        <v>8</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" s="8" customFormat="1" spans="1:9">
       <c r="A40" s="14"/>
       <c r="B40" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18">
-        <v>4</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16">
+        <v>2</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="16"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" s="8" customFormat="1" spans="1:9">
       <c r="A41" s="14"/>
       <c r="B41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16">
+        <v>4</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" s="8" customFormat="1" spans="1:9">
       <c r="A42" s="14"/>
       <c r="B42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18">
-        <f>F27+F34</f>
-        <v>42</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16">
+        <v>2</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" s="8" customFormat="1" spans="1:9">
       <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18">
-        <f>F32+F30+F26+F25</f>
-        <v>66</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16">
+        <f>F28+F35</f>
+        <v>42</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" s="8" customFormat="1" spans="1:9">
       <c r="A44" s="14"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16">
+        <f>F33+F31+F27+F26</f>
+        <v>66</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" s="8" customFormat="1" spans="1:9">
-      <c r="A45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="40">
+      <c r="A45" s="14"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="1:9">
+      <c r="A46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="35">
         <v>2</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" s="8" customFormat="1" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="41">
-        <v>2</v>
-      </c>
-      <c r="G46" s="44"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="43"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" s="8" customFormat="1" spans="1:9">
       <c r="A47" s="14"/>
-      <c r="B47" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="18"/>
+      <c r="B47" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="41">
+      <c r="E47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="36">
         <v>2</v>
       </c>
-      <c r="G47" s="44">
-        <v>3.96</v>
-      </c>
-      <c r="H47" s="43">
-        <f>G47*F47</f>
-        <v>7.92</v>
-      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" s="8" customFormat="1" spans="1:9">
       <c r="A48" s="14"/>
-      <c r="B48" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="6"/>
+      <c r="B48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="16"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="20">
-        <v>8</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="43"/>
+      <c r="E48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="36">
+        <v>2</v>
+      </c>
+      <c r="G48" s="39">
+        <v>3.96</v>
+      </c>
+      <c r="H48" s="38">
+        <f>G48*F48</f>
+        <v>7.92</v>
+      </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" s="8" customFormat="1" spans="1:9">
       <c r="A49" s="14"/>
-      <c r="B49" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="18">
+      <c r="B49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="15">
+        <v>8</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="1:9">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="16">
         <f>390-280+C4</f>
         <v>390</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="20">
+      <c r="D50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15">
         <v>4</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" s="8" customFormat="1" spans="1:9">
-      <c r="A50" s="14"/>
-      <c r="B50" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="14">
+      <c r="G50" s="39"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="1:9">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="14">
         <f>350-280+C4</f>
         <v>350</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="20">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15">
         <v>2</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" s="8" customFormat="1" spans="1:9">
-      <c r="A51" s="14"/>
-      <c r="B51" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20">
-        <v>2</v>
-      </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="43"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" s="8" customFormat="1" spans="1:9">
       <c r="A52" s="14"/>
-      <c r="B52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20">
-        <v>4</v>
-      </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="43"/>
+      <c r="B52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15">
+        <v>2</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" s="8" customFormat="1" spans="1:9">
       <c r="A53" s="14"/>
-      <c r="B53" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20">
-        <v>2</v>
-      </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15">
+        <v>4</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" s="8" customFormat="1" spans="1:9">
       <c r="A54" s="14"/>
-      <c r="B54" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20">
+      <c r="B54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15">
         <v>2</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="43"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" s="8" customFormat="1" spans="1:9">
       <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20">
-        <v>4</v>
-      </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="43"/>
+      <c r="B55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15">
+        <v>2</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" s="8" customFormat="1" spans="1:9">
       <c r="A56" s="14"/>
       <c r="B56" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20">
-        <v>8</v>
-      </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15">
+        <v>4</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="57" s="8" customFormat="1" spans="1:9">
       <c r="A57" s="14"/>
       <c r="B57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20">
+        <v>65</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15">
+        <v>8</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:9">
+      <c r="A58" s="14"/>
+      <c r="B58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15">
         <v>16</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" s="8" customFormat="1" spans="1:9">
-      <c r="A58" s="23"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="18"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" s="8" customFormat="1" spans="1:9">
-      <c r="A59" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="A59" s="17"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" s="8" customFormat="1" spans="1:9">
+      <c r="A60" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" s="8" customFormat="1" spans="1:9">
-      <c r="A60" s="14"/>
-      <c r="B60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="6">
-        <f>477-300+C2</f>
-        <v>477</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="6">
-        <v>2</v>
-      </c>
-      <c r="G60" s="44"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="43"/>
-      <c r="I60" s="6"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:9">
       <c r="A61" s="14"/>
       <c r="B61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="C61" s="6">
+        <f>477-300+C2</f>
+        <v>477</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" s="8" customFormat="1" spans="1:9">
       <c r="A62" s="14"/>
       <c r="B62" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
         <v>1</v>
       </c>
-      <c r="G62" s="44"/>
-      <c r="H62" s="43"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" s="8" customFormat="1" spans="1:9">
       <c r="A63" s="14"/>
       <c r="B63" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
         <v>1</v>
       </c>
-      <c r="G63" s="44"/>
-      <c r="H63" s="43"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="38"/>
       <c r="I63" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" s="8" customFormat="1" spans="1:9">
       <c r="A64" s="14"/>
       <c r="B64" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="6">
-        <v>40</v>
+        <v>97</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="6">
-        <v>4</v>
-      </c>
-      <c r="G64" s="44"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="39"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="65" s="8" customFormat="1" spans="1:9">
       <c r="A65" s="14"/>
       <c r="B65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="C65" s="6">
+        <v>40</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F65" s="6">
-        <v>2</v>
-      </c>
-      <c r="G65" s="44"/>
-      <c r="H65" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="G65" s="39"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" s="8" customFormat="1" spans="1:9">
       <c r="A66" s="14"/>
       <c r="B66" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
-        <v>4</v>
-      </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" s="8" customFormat="1" spans="1:9">
       <c r="A67" s="14"/>
       <c r="B67" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
-        <v>6</v>
-      </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:9">
       <c r="A68" s="14"/>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
-        <v>5</v>
-      </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="G68" s="39"/>
+      <c r="H68" s="38"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:9">
       <c r="A69" s="14"/>
       <c r="B69" s="6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
-        <v>4</v>
-      </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="G69" s="39"/>
+      <c r="H69" s="38"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" s="8" customFormat="1" spans="1:9">
       <c r="A70" s="14"/>
       <c r="B70" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
-        <v>8</v>
-      </c>
-      <c r="G70" s="44"/>
-      <c r="H70" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="39"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" s="8" customFormat="1" spans="1:9">
       <c r="A71" s="14"/>
       <c r="B71" s="6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6">
-        <v>4</v>
-      </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G71" s="39"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" s="8" customFormat="1" spans="1:9">
       <c r="A72" s="14"/>
       <c r="B72" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
-        <v>2</v>
-      </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="39"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73" s="8" customFormat="1" spans="1:9">
       <c r="A73" s="14"/>
       <c r="B73" s="6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
-        <v>24</v>
-      </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="39"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" s="8" customFormat="1" spans="1:9">
       <c r="A74" s="14"/>
       <c r="B74" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="E74" s="6"/>
       <c r="F74" s="6">
         <v>24</v>
       </c>
-      <c r="G74" s="51"/>
-      <c r="H74" s="52"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:9">
       <c r="A75" s="14"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="18"/>
+      <c r="E75" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="6">
+        <v>24</v>
+      </c>
+      <c r="G75" s="42"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" s="8" customFormat="1" spans="1:9">
-      <c r="A76" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" s="8" customFormat="1" spans="1:9">
+      <c r="A77" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4">
         <v>1</v>
       </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" s="8" customFormat="1" spans="1:9">
-      <c r="A77" s="14"/>
-      <c r="B77" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="6">
-        <v>1</v>
-      </c>
-      <c r="G77" s="44">
-        <v>32.28</v>
-      </c>
-      <c r="H77" s="43">
-        <f>G77*F77</f>
-        <v>32.28</v>
-      </c>
-      <c r="I77" s="6"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="4"/>
     </row>
     <row r="78" s="8" customFormat="1" spans="1:9">
       <c r="A78" s="14"/>
       <c r="B78" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="F78" s="6">
         <v>1</v>
       </c>
-      <c r="G78" s="44">
-        <v>10.29</v>
-      </c>
-      <c r="H78" s="43">
+      <c r="G78" s="39">
+        <v>32.28</v>
+      </c>
+      <c r="H78" s="38">
         <f>G78*F78</f>
-        <v>10.29</v>
+        <v>32.28</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" s="8" customFormat="1" spans="1:9">
       <c r="A79" s="14"/>
       <c r="B79" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="F79" s="6">
         <v>1</v>
       </c>
-      <c r="G79" s="44">
-        <v>8.63</v>
-      </c>
-      <c r="H79" s="43">
+      <c r="G79" s="39">
+        <v>10.29</v>
+      </c>
+      <c r="H79" s="38">
         <f>G79*F79</f>
-        <v>8.63</v>
+        <v>10.29</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" s="8" customFormat="1" spans="1:9">
       <c r="A80" s="14"/>
       <c r="B80" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="F80" s="6">
-        <v>2</v>
-      </c>
-      <c r="G80" s="44">
-        <v>2.17</v>
-      </c>
-      <c r="H80" s="43">
+        <v>1</v>
+      </c>
+      <c r="G80" s="39">
+        <v>8.63</v>
+      </c>
+      <c r="H80" s="38">
         <f>G80*F80</f>
-        <v>4.34</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>8.63</v>
+      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" s="8" customFormat="1" spans="1:9">
       <c r="A81" s="14"/>
       <c r="B81" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="G81" s="39">
+        <v>2.17</v>
+      </c>
+      <c r="H81" s="38">
+        <f>G81*F81</f>
+        <v>4.34</v>
+      </c>
       <c r="I81" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" s="8" customFormat="1" spans="1:9">
       <c r="A82" s="14"/>
       <c r="B82" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6">
-        <v>2</v>
-      </c>
-      <c r="G82" s="44"/>
-      <c r="H82" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="39"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" s="8" customFormat="1" spans="1:9">
       <c r="A83" s="14"/>
       <c r="B83" s="6" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6">
         <v>2</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="43"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="38"/>
       <c r="I83" s="6" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" s="8" customFormat="1" spans="1:9">
       <c r="A84" s="14"/>
       <c r="B84" s="6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="44"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="G84" s="39"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="85" s="8" customFormat="1" spans="1:9">
       <c r="A85" s="14"/>
       <c r="B85" s="6" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="E85" s="6"/>
       <c r="F85" s="6">
-        <v>6</v>
-      </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="G85" s="39"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" s="8" customFormat="1" spans="1:9">
       <c r="A86" s="14"/>
       <c r="B86" s="6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F86" s="6">
-        <v>8</v>
-      </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="G86" s="39"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" s="8" customFormat="1" spans="1:9">
       <c r="A87" s="14"/>
       <c r="B87" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
-        <v>2</v>
-      </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="43"/>
+        <v>8</v>
+      </c>
+      <c r="G87" s="39"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" s="8" customFormat="1" spans="1:9">
       <c r="A88" s="14"/>
       <c r="B88" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6">
-        <v>4</v>
-      </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="39"/>
+      <c r="H88" s="38"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" s="8" customFormat="1" spans="1:9">
       <c r="A89" s="14"/>
       <c r="B89" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6">
-        <v>2</v>
-      </c>
-      <c r="G89" s="44"/>
-      <c r="H89" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="G89" s="39"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" s="8" customFormat="1" spans="1:9">
       <c r="A90" s="14"/>
       <c r="B90" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20">
-        <v>1</v>
-      </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
+      <c r="G90" s="39"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" s="8" customFormat="1" spans="1:9">
       <c r="A91" s="14"/>
-      <c r="B91" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20">
+      <c r="B91" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15">
         <v>1</v>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="43"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="38"/>
       <c r="I91" s="6" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" s="8" customFormat="1" spans="1:9">
       <c r="A92" s="14"/>
-      <c r="B92" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="20">
+      <c r="B92" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15">
         <v>1</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="6"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="93" s="8" customFormat="1" spans="1:9">
       <c r="A93" s="14"/>
       <c r="B93" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20">
-        <v>4</v>
-      </c>
-      <c r="G93" s="47"/>
-      <c r="H93" s="53"/>
+        <v>59</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="15">
+        <v>1</v>
+      </c>
+      <c r="G93" s="42"/>
+      <c r="H93" s="47"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" s="8" customFormat="1" spans="1:9">
       <c r="A94" s="14"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="18"/>
+      <c r="B94" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15">
+        <v>4</v>
+      </c>
+      <c r="G94" s="42"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" s="8" customFormat="1" spans="1:9">
-      <c r="A95" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="4">
+      <c r="A95" s="14"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" s="8" customFormat="1" spans="1:9">
+      <c r="A96" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="4">
         <v>1</v>
       </c>
-      <c r="G95" s="45">
+      <c r="G96" s="40">
         <v>88.95</v>
       </c>
-      <c r="H95" s="4">
-        <f>G95*F95</f>
+      <c r="H96" s="4">
+        <f>G96*F96</f>
         <v>88.95</v>
       </c>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" s="8" customFormat="1" spans="1:9">
-      <c r="A96" s="14"/>
-      <c r="B96" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="47">
-        <v>24.3</v>
-      </c>
-      <c r="H96" s="6">
-        <f>G96*F96</f>
-        <v>24.3</v>
-      </c>
-      <c r="I96" s="6"/>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" s="8" customFormat="1" spans="1:9">
       <c r="A97" s="14"/>
       <c r="B97" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F97" s="6">
         <v>1</v>
       </c>
-      <c r="G97" s="47"/>
-      <c r="H97" s="6"/>
+      <c r="G97" s="42">
+        <v>24.3</v>
+      </c>
+      <c r="H97" s="6">
+        <f>G97*F97</f>
+        <v>24.3</v>
+      </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" s="8" customFormat="1" spans="1:9">
       <c r="A98" s="14"/>
       <c r="B98" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6">
         <v>1</v>
       </c>
-      <c r="G98" s="47"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
     <row r="99" s="8" customFormat="1" spans="1:9">
       <c r="A99" s="14"/>
       <c r="B99" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
         <v>1</v>
       </c>
-      <c r="G99" s="47"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" s="8" customFormat="1" spans="1:9">
       <c r="A100" s="14"/>
       <c r="B100" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
         <v>1</v>
       </c>
-      <c r="G100" s="47"/>
+      <c r="G100" s="42"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" s="8" customFormat="1" spans="1:9">
       <c r="A101" s="14"/>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6">
-        <v>5</v>
-      </c>
-      <c r="G101" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="42"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" s="8" customFormat="1" spans="1:9">
       <c r="A102" s="14"/>
       <c r="B102" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="6">
-        <v>1</v>
-      </c>
-      <c r="G102" s="47"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="42"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" s="8" customFormat="1" spans="1:9">
       <c r="A103" s="14"/>
       <c r="B103" s="6" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="F103" s="6">
-        <v>4</v>
-      </c>
-      <c r="G103" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G103" s="42"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" s="8" customFormat="1" spans="1:9">
       <c r="A104" s="14"/>
       <c r="B104" s="6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22">
-        <v>16</v>
-      </c>
-      <c r="G104" s="47"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="56"/>
+        <v>87</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <v>4</v>
+      </c>
+      <c r="G104" s="42"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" s="8" customFormat="1" spans="1:9">
       <c r="A105" s="14"/>
       <c r="B105" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22">
+        <v>25</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16">
         <v>16</v>
       </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="56"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" s="8" customFormat="1" spans="1:9">
       <c r="A106" s="14"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="56"/>
+      <c r="B106" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16">
+        <v>16</v>
+      </c>
+      <c r="G106" s="42"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" s="8" customFormat="1" spans="1:9">
       <c r="A107" s="14"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="56"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" s="8" customFormat="1" spans="1:9">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" s="8" customFormat="1" spans="1:9">
-      <c r="A109" s="54"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H109" s="29">
-        <f>SUM(H7:H108)</f>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H108" s="21">
+        <f>SUM(H8:H107)</f>
         <v>334.9</v>
       </c>
-      <c r="I109" s="29"/>
-    </row>
-    <row r="110" s="8" customFormat="1" spans="1:9">
-      <c r="A110" s="30"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="57"/>
-    </row>
-    <row r="111" s="8" customFormat="1" spans="1:1">
-      <c r="A111" s="55"/>
+      <c r="I108" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A44"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A75"/>
-    <mergeCell ref="A76:A94"/>
-    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A45"/>
+    <mergeCell ref="A46:A59"/>
+    <mergeCell ref="A60:A76"/>
+    <mergeCell ref="A77:A95"/>
+    <mergeCell ref="A96:A107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4134,10 +4162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75"/>
@@ -4152,191 +4180,176 @@
     <col min="9" max="9" width="25.5909090909091" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="34" spans="1:9">
       <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'Assembly BOM'!C7</f>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'Assembly BOM'!C8</f>
         <v>408</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>14.99</v>
-      </c>
-      <c r="H2" s="6">
-        <f>G2*F2</f>
-        <v>29.98</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="6">
-        <f>'Assembly BOM'!C19</f>
-        <v>334</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
       </c>
       <c r="G3" s="6">
+        <v>14.99</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3*F3</f>
+        <v>29.98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6">
+        <f>'Assembly BOM'!C20</f>
+        <v>334</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
         <f>13.29</f>
         <v>13.29</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H34" si="0">G3*F3</f>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H35" si="0">G4*F4</f>
         <v>26.58</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6">
-        <f>'Assembly BOM'!C49</f>
+      <c r="I4" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6">
+        <f>'Assembly BOM'!C50</f>
         <v>390</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>14.99</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>59.96</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="6">
-        <f>'Assembly BOM'!C16</f>
+      <c r="I5" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'Assembly BOM'!C17</f>
         <v>460</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="6">
         <f>31/4</f>
         <v>7.75</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6">
-        <f>'Assembly BOM'!C17</f>
-        <v>340</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <f>19/4</f>
-        <v>4.75</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6">
         <f>'Assembly BOM'!C18</f>
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -4350,1096 +4363,1113 @@
         <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="14"/>
-      <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="6">
-        <f>'Assembly BOM'!C60</f>
-        <v>477</v>
+        <f>'Assembly BOM'!C19</f>
+        <v>390</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="6">
-        <v>14.43</v>
+        <f>19/4</f>
+        <v>4.75</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>28.86</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>
-      <c r="B9" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'Assembly BOM'!C61</f>
+        <v>477</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6">
-        <f>'Assembly BOM'!H109</f>
-        <v>334.9</v>
+        <v>2</v>
       </c>
       <c r="G9" s="6">
-        <v>0.08</v>
+        <v>14.43</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>26.792</v>
+        <v>28.86</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="14">
-        <f>'Assembly BOM'!C50</f>
-        <v>350</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="20">
-        <v>2</v>
-      </c>
-      <c r="G10" s="21">
-        <v>12</v>
+      <c r="A10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6">
+        <f>'Assembly BOM'!H108</f>
+        <v>334.9</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.08</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I10" s="22"/>
+        <v>26.792</v>
+      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19"/>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>22.79</v>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'Assembly BOM'!C51</f>
+        <v>350</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>12</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
         <v>22.79</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="6" t="str">
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>22.79</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="6" t="str">
         <f>'Assembly BOM'!C2&amp;" x "&amp;'Assembly BOM'!C3&amp;" x "&amp;3</f>
         <v>300 x 200 x 3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="19"/>
-      <c r="B13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f>'Assembly BOM'!C2&amp;" x "&amp;'Assembly BOM'!C3&amp;" x "&amp;4</f>
-        <v>300 x 200 x 4</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="22">
-        <v>11.59</v>
+      <c r="G13" s="16">
+        <v>28</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>11.59</v>
+        <v>28</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="19"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>'Assembly BOM'!C2&amp;" x "&amp;'Assembly BOM'!C3</f>
-        <v>300 x 200</v>
+        <f>'Assembly BOM'!C2&amp;" x "&amp;'Assembly BOM'!C3&amp;" x "&amp;4</f>
+        <v>300 x 200 x 4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="22">
-        <v>17.99</v>
+      <c r="G14" s="16">
+        <v>11.59</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
+        <v>11.59</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>'Assembly BOM'!C2&amp;" x "&amp;'Assembly BOM'!C3</f>
+        <v>300 x 200</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
         <v>17.99</v>
       </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>17.99</v>
+      </c>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <f>'Assembly BOM'!F14+'Assembly BOM'!F83</f>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <f>'Assembly BOM'!F15+'Assembly BOM'!F84</f>
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="13">
         <f>15/4</f>
         <v>3.75</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18">
-        <f>'Assembly BOM'!F71</f>
+      <c r="I17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
+        <f>'Assembly BOM'!F72</f>
         <v>4</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="16">
         <f>12/2</f>
         <v>6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="I18" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6">
         <v>20</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G19" s="16">
         <f>11.5/20</f>
         <v>0.575</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15"/>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18">
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16">
         <v>12</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G20" s="16">
         <f>9/15</f>
         <v>0.6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="6">
         <v>4</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G21" s="18">
         <f>8.29/14</f>
         <v>0.592142857142857</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>2.36857142857143</v>
       </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="15"/>
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="22">
-        <f>'Assembly BOM'!F92+'Assembly BOM'!F36</f>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="16">
+        <f>'Assembly BOM'!F93+'Assembly BOM'!F37</f>
         <v>3</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G22" s="16">
         <f>12.59/5</f>
         <v>2.518</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="0"/>
         <v>7.554</v>
       </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G23" s="16">
         <f>10/4</f>
         <v>2.5</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15"/>
-      <c r="B23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G24" s="16">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15"/>
-      <c r="B24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
         <v>4</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G25" s="16">
         <f>8/10</f>
         <v>0.8</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15"/>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <f>'Assembly BOM'!F42</f>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16">
+        <f>'Assembly BOM'!F43</f>
         <v>42</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G26" s="16">
         <f>8/50</f>
         <v>0.16</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="0"/>
         <v>6.72</v>
       </c>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="15"/>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18">
-        <f>'Assembly BOM'!F43+'Assembly BOM'!F105</f>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16">
+        <f>'Assembly BOM'!F44+'Assembly BOM'!F106</f>
         <v>82</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G27" s="16">
         <f>9/90</f>
         <v>0.1</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <f t="shared" si="0"/>
         <v>8.2</v>
       </c>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="15"/>
-      <c r="B27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22">
-        <f>'Assembly BOM'!F67</f>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
+        <f>'Assembly BOM'!F68</f>
         <v>6</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G28" s="16">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15"/>
-      <c r="B28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="6">
-        <f>'Assembly BOM'!F74+'Assembly BOM'!F85</f>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="6">
+        <f>'Assembly BOM'!F75+'Assembly BOM'!F86</f>
         <v>30</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="16">
         <f>8.9/100</f>
         <v>0.089</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
         <v>2.67</v>
       </c>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20">
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
         <v>2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="14">
         <f>10/2</f>
         <v>5</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18">
-        <f>'Assembly BOM'!F39</f>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16">
+        <f>'Assembly BOM'!F40</f>
         <v>2</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="16">
         <f>7.98/5</f>
         <v>1.596</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <f t="shared" si="0"/>
         <v>3.192</v>
       </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="15"/>
-      <c r="B31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18">
-        <f>'Assembly BOM'!F40+'Assembly BOM'!F12</f>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16">
+        <f>'Assembly BOM'!F41+'Assembly BOM'!F13</f>
         <v>6</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G32" s="16">
         <f>9/5</f>
         <v>1.8</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18">
-        <f>'Assembly BOM'!F13</f>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16">
+        <f>'Assembly BOM'!F14</f>
         <v>2</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="16">
         <f>9/5</f>
         <v>1.8</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H33" s="6">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="15"/>
-      <c r="B33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18">
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16">
         <v>2</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G34" s="16">
         <f>15*2/10</f>
         <v>3</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="15"/>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <v>4</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="16">
         <f>7/4</f>
         <v>1.75</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="18">
-        <f>'Assembly BOM'!F30</f>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="16">
+        <f>'Assembly BOM'!F31</f>
         <v>48</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G36" s="18">
         <f>13.19/100</f>
         <v>0.1319</v>
       </c>
-      <c r="H35" s="25">
-        <f t="shared" ref="H35:H66" si="1">G35*F35</f>
+      <c r="H36" s="19">
+        <f t="shared" ref="H36:H67" si="1">G36*F36</f>
         <v>6.3312</v>
       </c>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="22">
-        <f>'Assembly BOM'!F25+'Assembly BOM'!F104</f>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="16">
+        <f>'Assembly BOM'!F26+'Assembly BOM'!F105</f>
         <v>26</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G37" s="18">
         <f>13.19/100</f>
         <v>0.1319</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H37" s="19">
         <f t="shared" si="1"/>
         <v>3.4294</v>
       </c>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="22">
-        <f>'Assembly BOM'!F57</f>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="16">
+        <f>'Assembly BOM'!F58</f>
         <v>16</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G38" s="18">
         <f>13.96/100</f>
         <v>0.1396</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H38" s="19">
         <f t="shared" si="1"/>
         <v>2.2336</v>
       </c>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="22">
-        <f>'Assembly BOM'!F32</f>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="16">
+        <f>'Assembly BOM'!F33</f>
         <v>4</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G39" s="18">
         <f>18.23/100</f>
         <v>0.1823</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H39" s="19">
         <f t="shared" si="1"/>
         <v>0.7292</v>
       </c>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="6">
-        <f>'Assembly BOM'!F26</f>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="6">
+        <f>'Assembly BOM'!F27</f>
         <v>4</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G40" s="18">
         <f>10.99/50</f>
         <v>0.2198</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H40" s="19">
         <f t="shared" si="1"/>
         <v>0.8792</v>
       </c>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="6">
-        <f>'Assembly BOM'!F34+'Assembly BOM'!F69</f>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="6">
+        <f>'Assembly BOM'!F35+'Assembly BOM'!F70</f>
         <v>44</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G41" s="18">
         <f>8.89/100</f>
         <v>0.0889</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H41" s="19">
         <f t="shared" si="1"/>
         <v>3.9116</v>
       </c>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="22">
-        <f>'Assembly BOM'!F70</f>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="16">
+        <f>'Assembly BOM'!F71</f>
         <v>8</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G42" s="18">
         <f>8.89/100</f>
         <v>0.0889</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H42" s="19">
         <f t="shared" si="1"/>
         <v>0.7112</v>
       </c>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="18">
-        <f>'Assembly BOM'!F11+'Assembly BOM'!F27</f>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="16">
+        <f>'Assembly BOM'!F12+'Assembly BOM'!F28</f>
         <v>4</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G43" s="18">
         <f>10.59/25</f>
         <v>0.4236</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="19">
         <f t="shared" si="1"/>
         <v>1.6944</v>
       </c>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="18">
-        <f>'Assembly BOM'!F10</f>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="16">
+        <f>'Assembly BOM'!F11</f>
         <v>2</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G44" s="18">
         <f>12.5/20</f>
         <v>0.625</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H44" s="19">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="18">
-        <f>'Assembly BOM'!F29</f>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="16">
+        <f>'Assembly BOM'!F30</f>
         <v>8</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G45" s="18">
         <f>12.99/50</f>
         <v>0.2598</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H45" s="19">
         <f t="shared" si="1"/>
         <v>2.0784</v>
       </c>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="18">
-        <f>'Assembly BOM'!F52+'Assembly BOM'!F89</f>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="16">
+        <f>'Assembly BOM'!F53+'Assembly BOM'!F90</f>
         <v>6</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G47" s="18">
         <f>7.59/60</f>
         <v>0.1265</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H47" s="19">
         <f t="shared" si="1"/>
         <v>0.759</v>
       </c>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="18">
-        <f>'Assembly BOM'!F86</f>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="16">
+        <f>'Assembly BOM'!F87</f>
         <v>8</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G48" s="18">
         <f>5.49/60</f>
         <v>0.0915</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H48" s="19">
         <f t="shared" si="1"/>
         <v>0.732</v>
       </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="18">
-        <f>'Assembly BOM'!F38+'Assembly BOM'!F56+'Assembly BOM'!F93+'Assembly BOM'!F103</f>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="16">
+        <f>'Assembly BOM'!F39+'Assembly BOM'!F57+'Assembly BOM'!F94+'Assembly BOM'!F104</f>
         <v>24</v>
       </c>
-      <c r="G48" s="26">
-        <f t="shared" ref="G48:G50" si="2">6.99/50</f>
+      <c r="G49" s="18">
+        <f t="shared" ref="G49:G51" si="2">6.99/50</f>
         <v>0.1398</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H49" s="19">
         <f t="shared" si="1"/>
         <v>3.3552</v>
       </c>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="18">
-        <f>'Assembly BOM'!F88</f>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="16">
+        <f>'Assembly BOM'!F89</f>
         <v>4</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="18">
         <f t="shared" si="2"/>
         <v>0.1398</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H50" s="19">
         <f t="shared" si="1"/>
         <v>0.5592</v>
       </c>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="6">
-        <f>'Assembly BOM'!F73</f>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="6">
+        <f>'Assembly BOM'!F74</f>
         <v>24</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G51" s="18">
         <f t="shared" si="2"/>
         <v>0.1398</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H51" s="19">
         <f t="shared" si="1"/>
         <v>3.3552</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="6">
-        <f>'Assembly BOM'!F68+'Assembly BOM'!F87</f>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="6">
+        <f>'Assembly BOM'!F69+'Assembly BOM'!F88</f>
         <v>7</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G52" s="19">
         <f>7.99/30</f>
         <v>0.266333333333333</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H52" s="19">
         <f t="shared" si="1"/>
         <v>1.86433333333333</v>
       </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -5449,132 +5479,116 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4">
-        <f>'Assembly BOM'!F36+'Assembly BOM'!F54+'Assembly BOM'!F91</f>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <f>'Assembly BOM'!F37+'Assembly BOM'!F55+'Assembly BOM'!F92</f>
         <v>5</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <f>24/3</f>
         <v>8</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <v>5</v>
-      </c>
-      <c r="G55" s="6">
-        <f>20/5</f>
-        <v>4</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>142</v>
+      <c r="I55" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="14"/>
       <c r="B56" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
-        <f>'Assembly BOM'!F36+'Assembly BOM'!F53+'Assembly BOM'!F84</f>
         <v>5</v>
       </c>
       <c r="G56" s="6">
-        <f>7/25</f>
-        <v>0.28</v>
+        <f>20/5</f>
+        <v>4</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>20</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="14"/>
       <c r="B57" s="6" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6">
-        <v>1</v>
+        <f>'Assembly BOM'!F37+'Assembly BOM'!F54+'Assembly BOM'!F85</f>
+        <v>5</v>
       </c>
       <c r="G57" s="6">
-        <f>14/2</f>
-        <v>7</v>
+        <f>7/25</f>
+        <v>0.28</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="14"/>
       <c r="B58" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6">
-        <f>11/2</f>
-        <v>5.5</v>
+        <f>14/2</f>
+        <v>7</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5582,27 +5596,32 @@
       <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="27">
-        <v>14.98</v>
+        <v>2</v>
+      </c>
+      <c r="G59" s="6">
+        <f>11/2</f>
+        <v>5.5</v>
       </c>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
-        <v>14.98</v>
+        <v>11</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="14"/>
       <c r="B60" s="6" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -5610,170 +5629,189 @@
       <c r="F60" s="6">
         <v>1</v>
       </c>
-      <c r="G60" s="21">
-        <v>15</v>
+      <c r="G60" s="15">
+        <v>14.98</v>
       </c>
       <c r="H60" s="6">
-        <f>G60*F60</f>
-        <v>15</v>
-      </c>
-      <c r="I60" s="6"/>
+        <f t="shared" si="1"/>
+        <v>14.98</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="14"/>
       <c r="B61" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="6">
         <v>1</v>
       </c>
-      <c r="G61" s="22">
-        <v>11</v>
+      <c r="G61" s="14">
+        <v>15</v>
       </c>
       <c r="H61" s="6">
-        <f>G61*F61</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="14"/>
       <c r="B62" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="F62" s="6">
         <v>1</v>
       </c>
-      <c r="G62" s="22">
-        <v>7</v>
+      <c r="G62" s="16">
+        <v>11</v>
       </c>
       <c r="H62" s="6">
-        <f>G62*F62</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="14"/>
       <c r="B63" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
         <v>1</v>
       </c>
-      <c r="G63" s="22">
-        <v>16.39</v>
+      <c r="G63" s="16">
+        <v>7</v>
       </c>
       <c r="H63" s="6">
-        <f>G63*F63</f>
-        <v>16.39</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="14"/>
       <c r="B64" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
         <v>1</v>
       </c>
-      <c r="G64" s="22">
-        <v>32.99</v>
+      <c r="G64" s="16">
+        <v>16.39</v>
       </c>
       <c r="H64" s="6">
-        <f>G64*F64</f>
-        <v>32.99</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>138</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>16.39</v>
+      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="14"/>
       <c r="B65" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
         <v>1</v>
       </c>
-      <c r="G65" s="22">
-        <v>30</v>
+      <c r="G65" s="16">
+        <v>32.99</v>
       </c>
       <c r="H65" s="6">
-        <f>G65*F65</f>
-        <v>30</v>
-      </c>
-      <c r="I65" s="6"/>
+        <f t="shared" si="1"/>
+        <v>32.99</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="14"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="16">
+        <v>30</v>
+      </c>
+      <c r="H66" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H67" s="29">
-        <f>SUM(H2:H65)</f>
+      <c r="A67" s="14"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H68" s="21">
+        <f>SUM(H3:H66)</f>
         <v>725.279704761905</v>
       </c>
-      <c r="I67" s="29"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="9:9">
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
       <c r="I69"/>
     </row>
     <row r="70" spans="9:9">
@@ -5788,18 +5826,22 @@
     <row r="73" spans="9:9">
       <c r="I73"/>
     </row>
+    <row r="74" spans="9:9">
+      <c r="I74"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A53"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B52"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A54"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="B47:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5809,8 +5851,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="5"/>
@@ -5822,9 +5864,9 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="29.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5832,34 +5874,34 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>166</v>
+      <c r="A2" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="22.25" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -5868,16 +5910,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5885,16 +5927,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B5" s="6">
         <v>1.75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5902,7 +5944,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5913,16 +5955,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5930,10 +5972,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5943,13 +5985,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -5958,13 +6000,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
@@ -5973,10 +6015,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5989,7 +6031,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>